--- a/GPT_MASB_Room105.xlsx
+++ b/GPT_MASB_Room105.xlsx
@@ -479,7 +479,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CS-033</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -494,7 +494,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CS-034</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -509,7 +509,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CS-035</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -524,7 +524,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CS-036</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -536,7 +536,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>24001-EC-033</t>
+          <t>22001-EC-033</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>24001-EC-034</t>
+          <t>22001-EC-034</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>24001-EC-035</t>
+          <t>22001-EC-035</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -608,7 +608,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CS-037</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -623,7 +623,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CS-038</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -638,7 +638,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CS-039</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -653,7 +653,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CS-040</t>
         </is>
       </c>
     </row>
